--- a/webapp_2024/DataFiles/DataModel_0.xlsx
+++ b/webapp_2024/DataFiles/DataModel_0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\JNS-PROJECTS\Videowand\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I524946/Documents/TMZ_repo/webapp_2024/DataFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1414D629-7B09-4560-95C8-493A78771A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB856987-DCFA-0841-BBC0-F5DA55EDB488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="40" windowWidth="19170" windowHeight="10160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="500" windowWidth="19180" windowHeight="10160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gifs" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="755">
   <si>
     <t>Group</t>
   </si>
@@ -2288,13 +2288,22 @@
   </si>
   <si>
     <t>VfBStuttgart9</t>
+  </si>
+  <si>
+    <t>OhneWertung</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Nein</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2306,6 +2315,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF62646A"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2329,12 +2344,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2675,804 +2691,804 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>751</v>
       </c>
@@ -3487,1478 +3503,1478 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D140" sqref="D140"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>575</v>
       </c>
@@ -4982,13 +4998,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5002,7 +5018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -5016,7 +5032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -5030,7 +5046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -5044,7 +5060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -5058,7 +5074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -5072,7 +5088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -5086,7 +5102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -5100,7 +5116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -5114,7 +5130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -5128,7 +5144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -5142,7 +5158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -5156,7 +5172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -5170,7 +5186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -5184,7 +5200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -5198,7 +5214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -5212,7 +5228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -5226,7 +5242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -5240,7 +5256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5254,7 +5270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -5268,7 +5284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -5282,7 +5298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5296,7 +5312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5310,7 +5326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -5324,7 +5340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -5338,7 +5354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -5352,7 +5368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -5366,7 +5382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -5380,7 +5396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -5394,7 +5410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -5408,7 +5424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -5422,7 +5438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -5436,7 +5452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -5450,7 +5466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -5464,7 +5480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -5478,7 +5494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -5500,20 +5516,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F180"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.453125" customWidth="1"/>
-    <col min="2" max="3" width="32.08984375" customWidth="1"/>
-    <col min="4" max="4" width="38.26953125" customWidth="1"/>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="2" max="3" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -5532,8 +5549,12 @@
       <c r="F1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>752</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -5552,8 +5573,11 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -5572,8 +5596,11 @@
       <c r="F3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -5592,8 +5619,11 @@
       <c r="F4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -5612,8 +5642,11 @@
       <c r="F5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -5632,8 +5665,11 @@
       <c r="F6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -5652,8 +5688,11 @@
       <c r="F7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -5672,8 +5711,11 @@
       <c r="F8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -5692,8 +5734,11 @@
       <c r="F9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -5712,8 +5757,11 @@
       <c r="F10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -5732,8 +5780,11 @@
       <c r="F11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -5752,8 +5803,11 @@
       <c r="F12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -5772,8 +5826,11 @@
       <c r="F13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -5792,8 +5849,11 @@
       <c r="F14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -5812,8 +5872,11 @@
       <c r="F15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -5832,8 +5895,11 @@
       <c r="F16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -5852,8 +5918,11 @@
       <c r="F17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -5872,8 +5941,11 @@
       <c r="F18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -5892,8 +5964,11 @@
       <c r="F19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -5912,8 +5987,11 @@
       <c r="F20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -5932,8 +6010,11 @@
       <c r="F21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -5952,8 +6033,11 @@
       <c r="F22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -5972,8 +6056,11 @@
       <c r="F23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -5992,8 +6079,11 @@
       <c r="F24" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6102,11 @@
       <c r="F25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -6032,8 +6125,11 @@
       <c r="F26" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -6052,8 +6148,11 @@
       <c r="F27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -6072,8 +6171,11 @@
       <c r="F28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -6092,8 +6194,11 @@
       <c r="F29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -6112,8 +6217,11 @@
       <c r="F30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -6132,8 +6240,11 @@
       <c r="F31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -6152,8 +6263,11 @@
       <c r="F32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -6172,8 +6286,11 @@
       <c r="F33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G33" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -6192,8 +6309,11 @@
       <c r="F34" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -6212,8 +6332,11 @@
       <c r="F35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -6232,8 +6355,11 @@
       <c r="F36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G36" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -6252,8 +6378,11 @@
       <c r="F37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G37" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -6272,8 +6401,11 @@
       <c r="F38" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G38" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -6292,8 +6424,11 @@
       <c r="F39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G39" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -6312,8 +6447,11 @@
       <c r="F40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G40" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -6332,8 +6470,11 @@
       <c r="F41" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G41" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -6352,8 +6493,11 @@
       <c r="F42" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G42" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>108</v>
       </c>
@@ -6372,8 +6516,11 @@
       <c r="F43" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G43" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>111</v>
       </c>
@@ -6392,8 +6539,11 @@
       <c r="F44" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G44" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>114</v>
       </c>
@@ -6412,8 +6562,11 @@
       <c r="F45" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G45" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -6432,8 +6585,11 @@
       <c r="F46" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G46" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>118</v>
       </c>
@@ -6452,8 +6608,11 @@
       <c r="F47" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G47" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>121</v>
       </c>
@@ -6472,8 +6631,11 @@
       <c r="F48" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G48" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>123</v>
       </c>
@@ -6492,8 +6654,11 @@
       <c r="F49" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G49" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>126</v>
       </c>
@@ -6512,8 +6677,11 @@
       <c r="F50" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G50" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>128</v>
       </c>
@@ -6532,8 +6700,11 @@
       <c r="F51" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G51" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>128</v>
       </c>
@@ -6552,8 +6723,11 @@
       <c r="F52" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G52" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>128</v>
       </c>
@@ -6572,8 +6746,11 @@
       <c r="F53" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G53" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>128</v>
       </c>
@@ -6592,8 +6769,11 @@
       <c r="F54" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G54" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -6612,8 +6792,11 @@
       <c r="F55" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G55" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>130</v>
       </c>
@@ -6632,8 +6815,11 @@
       <c r="F56" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G56" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>130</v>
       </c>
@@ -6652,8 +6838,11 @@
       <c r="F57" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G57" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>133</v>
       </c>
@@ -6672,8 +6861,11 @@
       <c r="F58" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G58" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>133</v>
       </c>
@@ -6692,8 +6884,11 @@
       <c r="F59" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G59" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>133</v>
       </c>
@@ -6712,8 +6907,11 @@
       <c r="F60" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G60" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>136</v>
       </c>
@@ -6732,8 +6930,11 @@
       <c r="F61" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G61" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>136</v>
       </c>
@@ -6752,8 +6953,11 @@
       <c r="F62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G62" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>139</v>
       </c>
@@ -6772,8 +6976,11 @@
       <c r="F63" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G63" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>141</v>
       </c>
@@ -6792,8 +6999,11 @@
       <c r="F64" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G64" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>143</v>
       </c>
@@ -6812,8 +7022,11 @@
       <c r="F65" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G65" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -6832,8 +7045,11 @@
       <c r="F66" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G66" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>145</v>
       </c>
@@ -6852,8 +7068,11 @@
       <c r="F67" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G67" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>148</v>
       </c>
@@ -6872,8 +7091,11 @@
       <c r="F68" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G68" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>150</v>
       </c>
@@ -6892,8 +7114,11 @@
       <c r="F69" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G69" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -6912,8 +7137,11 @@
       <c r="F70" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G70" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>154</v>
       </c>
@@ -6932,8 +7160,11 @@
       <c r="F71" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G71" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>156</v>
       </c>
@@ -6952,8 +7183,11 @@
       <c r="F72" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G72" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>156</v>
       </c>
@@ -6972,8 +7206,11 @@
       <c r="F73" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G73" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>156</v>
       </c>
@@ -6992,8 +7229,11 @@
       <c r="F74" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G74" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>159</v>
       </c>
@@ -7012,8 +7252,11 @@
       <c r="F75" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G75" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>161</v>
       </c>
@@ -7032,8 +7275,11 @@
       <c r="F76" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G76" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>163</v>
       </c>
@@ -7052,8 +7298,11 @@
       <c r="F77" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G77" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>165</v>
       </c>
@@ -7072,8 +7321,11 @@
       <c r="F78" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G78" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>167</v>
       </c>
@@ -7092,8 +7344,11 @@
       <c r="F79" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G79" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>169</v>
       </c>
@@ -7112,8 +7367,11 @@
       <c r="F80" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G80" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>171</v>
       </c>
@@ -7132,8 +7390,11 @@
       <c r="F81" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G81" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>173</v>
       </c>
@@ -7152,8 +7413,11 @@
       <c r="F82" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G82" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>173</v>
       </c>
@@ -7172,8 +7436,11 @@
       <c r="F83" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G83" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>176</v>
       </c>
@@ -7192,8 +7459,11 @@
       <c r="F84" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G84" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>178</v>
       </c>
@@ -7212,8 +7482,11 @@
       <c r="F85" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G85" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>180</v>
       </c>
@@ -7232,8 +7505,11 @@
       <c r="F86" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G86" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>182</v>
       </c>
@@ -7252,8 +7528,11 @@
       <c r="F87" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G87" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>184</v>
       </c>
@@ -7272,8 +7551,11 @@
       <c r="F88" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G88" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>184</v>
       </c>
@@ -7292,8 +7574,11 @@
       <c r="F89" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G89" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>184</v>
       </c>
@@ -7312,8 +7597,11 @@
       <c r="F90" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G90" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>186</v>
       </c>
@@ -7332,8 +7620,11 @@
       <c r="F91" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G91" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>186</v>
       </c>
@@ -7352,8 +7643,11 @@
       <c r="F92" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G92" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>186</v>
       </c>
@@ -7372,8 +7666,11 @@
       <c r="F93" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G93" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>189</v>
       </c>
@@ -7392,8 +7689,11 @@
       <c r="F94" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G94" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -7412,8 +7712,11 @@
       <c r="F95" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G95" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>189</v>
       </c>
@@ -7432,8 +7735,11 @@
       <c r="F96" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G96" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -7452,8 +7758,11 @@
       <c r="F97" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G97" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>193</v>
       </c>
@@ -7472,8 +7781,11 @@
       <c r="F98" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G98" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>195</v>
       </c>
@@ -7492,8 +7804,11 @@
       <c r="F99" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G99" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>197</v>
       </c>
@@ -7512,8 +7827,11 @@
       <c r="F100" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G100" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>200</v>
       </c>
@@ -7532,8 +7850,11 @@
       <c r="F101" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G101" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>202</v>
       </c>
@@ -7552,8 +7873,11 @@
       <c r="F102" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G102" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -7572,8 +7896,11 @@
       <c r="F103" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G103" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>204</v>
       </c>
@@ -7592,8 +7919,11 @@
       <c r="F104" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G104" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>206</v>
       </c>
@@ -7612,8 +7942,11 @@
       <c r="F105" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G105" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>206</v>
       </c>
@@ -7632,8 +7965,11 @@
       <c r="F106" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G106" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>209</v>
       </c>
@@ -7652,8 +7988,11 @@
       <c r="F107" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G107" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>211</v>
       </c>
@@ -7672,8 +8011,11 @@
       <c r="F108" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G108" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>213</v>
       </c>
@@ -7692,8 +8034,11 @@
       <c r="F109" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G109" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>215</v>
       </c>
@@ -7712,8 +8057,11 @@
       <c r="F110" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G110" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>215</v>
       </c>
@@ -7732,8 +8080,11 @@
       <c r="F111" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G111" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>215</v>
       </c>
@@ -7752,8 +8103,11 @@
       <c r="F112" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G112" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>217</v>
       </c>
@@ -7772,8 +8126,11 @@
       <c r="F113" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G113" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>219</v>
       </c>
@@ -7792,8 +8149,11 @@
       <c r="F114" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G114" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>219</v>
       </c>
@@ -7812,8 +8172,11 @@
       <c r="F115" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G115" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>219</v>
       </c>
@@ -7832,8 +8195,11 @@
       <c r="F116" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G116" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>219</v>
       </c>
@@ -7852,8 +8218,11 @@
       <c r="F117" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G117" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>222</v>
       </c>
@@ -7872,8 +8241,11 @@
       <c r="F118" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G118" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>222</v>
       </c>
@@ -7892,8 +8264,11 @@
       <c r="F119" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G119" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>222</v>
       </c>
@@ -7912,8 +8287,11 @@
       <c r="F120" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G120" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>222</v>
       </c>
@@ -7932,8 +8310,11 @@
       <c r="F121" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G121" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>222</v>
       </c>
@@ -7952,8 +8333,11 @@
       <c r="F122" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G122" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>222</v>
       </c>
@@ -7972,8 +8356,11 @@
       <c r="F123" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G123" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>222</v>
       </c>
@@ -7992,8 +8379,11 @@
       <c r="F124" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G124" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>222</v>
       </c>
@@ -8012,8 +8402,11 @@
       <c r="F125" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G125" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>224</v>
       </c>
@@ -8032,8 +8425,11 @@
       <c r="F126" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G126" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>224</v>
       </c>
@@ -8052,8 +8448,11 @@
       <c r="F127" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G127" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>224</v>
       </c>
@@ -8072,8 +8471,11 @@
       <c r="F128" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G128" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>224</v>
       </c>
@@ -8092,8 +8494,11 @@
       <c r="F129" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G129" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>224</v>
       </c>
@@ -8112,8 +8517,11 @@
       <c r="F130" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G130" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>226</v>
       </c>
@@ -8132,8 +8540,11 @@
       <c r="F131" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G131" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>226</v>
       </c>
@@ -8152,8 +8563,11 @@
       <c r="F132" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G132" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>228</v>
       </c>
@@ -8172,8 +8586,11 @@
       <c r="F133" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G133" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>230</v>
       </c>
@@ -8192,8 +8609,11 @@
       <c r="F134" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G134" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>232</v>
       </c>
@@ -8212,8 +8632,11 @@
       <c r="F135" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G135" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>234</v>
       </c>
@@ -8232,8 +8655,11 @@
       <c r="F136" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G136" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>236</v>
       </c>
@@ -8252,8 +8678,11 @@
       <c r="F137" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G137" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>238</v>
       </c>
@@ -8272,8 +8701,11 @@
       <c r="F138" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G138" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>240</v>
       </c>
@@ -8292,8 +8724,11 @@
       <c r="F139" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G139" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>242</v>
       </c>
@@ -8312,8 +8747,11 @@
       <c r="F140" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G140" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>243</v>
       </c>
@@ -8332,8 +8770,11 @@
       <c r="F141" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G141" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>245</v>
       </c>
@@ -8352,8 +8793,11 @@
       <c r="F142" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G142" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>245</v>
       </c>
@@ -8372,8 +8816,11 @@
       <c r="F143" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G143" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>245</v>
       </c>
@@ -8392,8 +8839,11 @@
       <c r="F144" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G144" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>245</v>
       </c>
@@ -8412,8 +8862,11 @@
       <c r="F145" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G145" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>247</v>
       </c>
@@ -8432,8 +8885,11 @@
       <c r="F146" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G146" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>247</v>
       </c>
@@ -8452,8 +8908,11 @@
       <c r="F147" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G147" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>249</v>
       </c>
@@ -8472,8 +8931,11 @@
       <c r="F148" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G148" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>249</v>
       </c>
@@ -8492,8 +8954,11 @@
       <c r="F149" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G149" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>251</v>
       </c>
@@ -8512,8 +8977,11 @@
       <c r="F150" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G150" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>253</v>
       </c>
@@ -8532,8 +9000,11 @@
       <c r="F151" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G151" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>255</v>
       </c>
@@ -8552,8 +9023,11 @@
       <c r="F152" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G152" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>258</v>
       </c>
@@ -8572,8 +9046,11 @@
       <c r="F153" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G153" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>260</v>
       </c>
@@ -8592,8 +9069,11 @@
       <c r="F154" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G154" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>260</v>
       </c>
@@ -8612,8 +9092,11 @@
       <c r="F155" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G155" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>262</v>
       </c>
@@ -8632,8 +9115,11 @@
       <c r="F156" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G156" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>262</v>
       </c>
@@ -8652,8 +9138,11 @@
       <c r="F157" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G157" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>264</v>
       </c>
@@ -8672,8 +9161,11 @@
       <c r="F158" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G158" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>266</v>
       </c>
@@ -8692,8 +9184,11 @@
       <c r="F159" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G159" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>266</v>
       </c>
@@ -8712,8 +9207,11 @@
       <c r="F160" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G160" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>268</v>
       </c>
@@ -8732,8 +9230,11 @@
       <c r="F161" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G161" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>270</v>
       </c>
@@ -8752,8 +9253,11 @@
       <c r="F162" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G162" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>273</v>
       </c>
@@ -8772,8 +9276,11 @@
       <c r="F163" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G163" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>275</v>
       </c>
@@ -8792,8 +9299,11 @@
       <c r="F164" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G164" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>275</v>
       </c>
@@ -8812,8 +9322,11 @@
       <c r="F165" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G165" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>278</v>
       </c>
@@ -8832,8 +9345,11 @@
       <c r="F166" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G166" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>280</v>
       </c>
@@ -8852,8 +9368,11 @@
       <c r="F167" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G167" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>282</v>
       </c>
@@ -8872,8 +9391,11 @@
       <c r="F168" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G168" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>284</v>
       </c>
@@ -8892,8 +9414,11 @@
       <c r="F169" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G169" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>284</v>
       </c>
@@ -8912,8 +9437,11 @@
       <c r="F170" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G170" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>286</v>
       </c>
@@ -8932,8 +9460,11 @@
       <c r="F171" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G171" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>288</v>
       </c>
@@ -8952,8 +9483,11 @@
       <c r="F172" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G172" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>288</v>
       </c>
@@ -8972,8 +9506,11 @@
       <c r="F173" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G173" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>288</v>
       </c>
@@ -8992,8 +9529,11 @@
       <c r="F174" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G174" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>288</v>
       </c>
@@ -9012,8 +9552,11 @@
       <c r="F175" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G175" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>290</v>
       </c>
@@ -9032,8 +9575,11 @@
       <c r="F176" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G176" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>290</v>
       </c>
@@ -9052,8 +9598,11 @@
       <c r="F177" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G177" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>293</v>
       </c>
@@ -9072,8 +9621,11 @@
       <c r="F178" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G178" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>288</v>
       </c>
@@ -9092,8 +9644,11 @@
       <c r="F179" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G179" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>296</v>
       </c>
@@ -9111,6 +9666,9 @@
       </c>
       <c r="F180" t="b">
         <v>1</v>
+      </c>
+      <c r="G180" t="s">
+        <v>754</v>
       </c>
     </row>
   </sheetData>
